--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H2">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I2">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J2">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N2">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O2">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P2">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q2">
-        <v>800.4658953837558</v>
+        <v>806.4706884762315</v>
       </c>
       <c r="R2">
-        <v>800.4658953837558</v>
+        <v>3225.882753904926</v>
       </c>
       <c r="S2">
-        <v>0.04243125817422527</v>
+        <v>0.03550375536721354</v>
       </c>
       <c r="T2">
-        <v>0.04243125817422527</v>
+        <v>0.02716165398862789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H3">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I3">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J3">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N3">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O3">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P3">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q3">
-        <v>841.5221591749988</v>
+        <v>913.4552258758441</v>
       </c>
       <c r="R3">
-        <v>841.5221591749988</v>
+        <v>5480.731355255064</v>
       </c>
       <c r="S3">
-        <v>0.04460757691390143</v>
+        <v>0.0402136014883256</v>
       </c>
       <c r="T3">
-        <v>0.04460757691390143</v>
+        <v>0.04614728433507383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H4">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I4">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J4">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N4">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O4">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P4">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q4">
-        <v>272.6229234322988</v>
+        <v>278.52830182717</v>
       </c>
       <c r="R4">
-        <v>272.6229234322988</v>
+        <v>1671.16981096302</v>
       </c>
       <c r="S4">
-        <v>0.01445125109649071</v>
+        <v>0.01226182281912991</v>
       </c>
       <c r="T4">
-        <v>0.01445125109649071</v>
+        <v>0.01407110537624829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H5">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I5">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J5">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N5">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O5">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P5">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q5">
-        <v>254.1032070628818</v>
+        <v>262.948136420492</v>
       </c>
       <c r="R5">
-        <v>254.1032070628818</v>
+        <v>1577.688818522952</v>
       </c>
       <c r="S5">
-        <v>0.01346955422331234</v>
+        <v>0.01157592761043415</v>
       </c>
       <c r="T5">
-        <v>0.01346955422331234</v>
+        <v>0.01328400349906534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H6">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I6">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J6">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N6">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O6">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P6">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q6">
-        <v>571.2158590725616</v>
+        <v>594.6470788045601</v>
       </c>
       <c r="R6">
-        <v>571.2158590725616</v>
+        <v>3567.882472827361</v>
       </c>
       <c r="S6">
-        <v>0.03027912585569926</v>
+        <v>0.02617851425647627</v>
       </c>
       <c r="T6">
-        <v>0.03027912585569926</v>
+        <v>0.03004126206438158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H7">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I7">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J7">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N7">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O7">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P7">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q7">
-        <v>5792.561379399566</v>
+        <v>7257.375855319788</v>
       </c>
       <c r="R7">
-        <v>5792.561379399566</v>
+        <v>29029.50342127915</v>
       </c>
       <c r="S7">
-        <v>0.3070532658502784</v>
+        <v>0.319495922985166</v>
       </c>
       <c r="T7">
-        <v>0.3070532658502784</v>
+        <v>0.2444259099113285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H8">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J8">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N8">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O8">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P8">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q8">
-        <v>57.81444877369582</v>
+        <v>66.27457056856501</v>
       </c>
       <c r="R8">
-        <v>57.81444877369582</v>
+        <v>397.64742341139</v>
       </c>
       <c r="S8">
-        <v>0.003064640000610064</v>
+        <v>0.002917646201102832</v>
       </c>
       <c r="T8">
-        <v>0.003064640000610064</v>
+        <v>0.003348156938157557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H9">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J9">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N9">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O9">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P9">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q9">
-        <v>60.77977843169479</v>
+        <v>75.06640190844001</v>
       </c>
       <c r="R9">
-        <v>60.77977843169479</v>
+        <v>675.59761717596</v>
       </c>
       <c r="S9">
-        <v>0.003221826795220371</v>
+        <v>0.003304694402086423</v>
       </c>
       <c r="T9">
-        <v>0.003221826795220371</v>
+        <v>0.005688473547608586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H10">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I10">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J10">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N10">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O10">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P10">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q10">
-        <v>19.6904629319098</v>
+        <v>22.8890446467</v>
       </c>
       <c r="R10">
-        <v>19.6904629319098</v>
+        <v>206.0014018203</v>
       </c>
       <c r="S10">
-        <v>0.001043756043889078</v>
+        <v>0.00100765849687743</v>
       </c>
       <c r="T10">
-        <v>0.001043756043889078</v>
+        <v>0.00173451399950669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H11">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I11">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J11">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N11">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O11">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P11">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q11">
-        <v>18.3528579202313</v>
+        <v>21.60868965492</v>
       </c>
       <c r="R11">
-        <v>18.3528579202313</v>
+        <v>194.47820689428</v>
       </c>
       <c r="S11">
-        <v>0.0009728520067364915</v>
+        <v>0.000951292641228992</v>
       </c>
       <c r="T11">
-        <v>0.0009728520067364915</v>
+        <v>0.001637489694130062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H12">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I12">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J12">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N12">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O12">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P12">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q12">
-        <v>41.25663593355315</v>
+        <v>48.86721904560002</v>
       </c>
       <c r="R12">
-        <v>41.25663593355315</v>
+        <v>439.8049714104001</v>
       </c>
       <c r="S12">
-        <v>0.002186940106745412</v>
+        <v>0.002151311653680957</v>
       </c>
       <c r="T12">
-        <v>0.002186940106745412</v>
+        <v>0.003703119848812626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H13">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I13">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J13">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N13">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O13">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P13">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q13">
-        <v>418.3735310512283</v>
+        <v>596.4004335666151</v>
       </c>
       <c r="R13">
-        <v>418.3735310512283</v>
+        <v>3578.40260139969</v>
       </c>
       <c r="S13">
-        <v>0.02217722880096757</v>
+        <v>0.02625570327206412</v>
       </c>
       <c r="T13">
-        <v>0.02217722880096757</v>
+        <v>0.03012984063775086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H14">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I14">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J14">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N14">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O14">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P14">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q14">
-        <v>48.86533323893422</v>
+        <v>62.25518873699266</v>
       </c>
       <c r="R14">
-        <v>48.86533323893422</v>
+        <v>373.5311324219559</v>
       </c>
       <c r="S14">
-        <v>0.002590263473294813</v>
+        <v>0.002740698481471268</v>
       </c>
       <c r="T14">
-        <v>0.002590263473294813</v>
+        <v>0.003145099852294424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H15">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I15">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J15">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N15">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O15">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P15">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q15">
-        <v>51.37165864676795</v>
+        <v>70.513818173776</v>
       </c>
       <c r="R15">
-        <v>51.37165864676795</v>
+        <v>634.6243635639839</v>
       </c>
       <c r="S15">
-        <v>0.002723119277722844</v>
+        <v>0.003104273206978066</v>
       </c>
       <c r="T15">
-        <v>0.002723119277722844</v>
+        <v>0.005343482293338843</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H16">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I16">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J16">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N16">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O16">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P16">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q16">
-        <v>16.64257038172132</v>
+        <v>21.50088310290222</v>
       </c>
       <c r="R16">
-        <v>16.64257038172132</v>
+        <v>193.50794792612</v>
       </c>
       <c r="S16">
-        <v>0.0008821927387811887</v>
+        <v>0.0009465466070525312</v>
       </c>
       <c r="T16">
-        <v>0.0008821927387811887</v>
+        <v>0.001629320197473488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H17">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I17">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J17">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N17">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O17">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P17">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q17">
-        <v>15.51201364332555</v>
+        <v>20.29817834027911</v>
       </c>
       <c r="R17">
-        <v>15.51201364332555</v>
+        <v>182.683605062512</v>
       </c>
       <c r="S17">
-        <v>0.0008222639583995052</v>
+        <v>0.0008935991952230533</v>
       </c>
       <c r="T17">
-        <v>0.0008222639583995052</v>
+        <v>0.001538180166063574</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H18">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I18">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J18">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N18">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O18">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P18">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q18">
-        <v>34.87050911964594</v>
+        <v>45.90354820312889</v>
       </c>
       <c r="R18">
-        <v>34.87050911964594</v>
+        <v>413.13193382816</v>
       </c>
       <c r="S18">
-        <v>0.001848423004221848</v>
+        <v>0.002020840148536924</v>
       </c>
       <c r="T18">
-        <v>0.001848423004221848</v>
+        <v>0.003478535177606741</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H19">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I19">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J19">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N19">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O19">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P19">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q19">
-        <v>353.6133690938065</v>
+        <v>560.2302849492127</v>
       </c>
       <c r="R19">
-        <v>353.6133690938065</v>
+        <v>3361.381709695276</v>
       </c>
       <c r="S19">
-        <v>0.01874440903029808</v>
+        <v>0.02466336256277638</v>
       </c>
       <c r="T19">
-        <v>0.01874440903029808</v>
+        <v>0.02830254348578732</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H20">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I20">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J20">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N20">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O20">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P20">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q20">
-        <v>144.0384684453269</v>
+        <v>150.2793609416907</v>
       </c>
       <c r="R20">
-        <v>144.0384684453269</v>
+        <v>901.6761656501438</v>
       </c>
       <c r="S20">
-        <v>0.007635220284673848</v>
+        <v>0.006615840778659892</v>
       </c>
       <c r="T20">
-        <v>0.007635220284673848</v>
+        <v>0.007592035386759049</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H21">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I21">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J21">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N21">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O21">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P21">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q21">
-        <v>151.4262677140801</v>
+        <v>170.215073597824</v>
       </c>
       <c r="R21">
-        <v>151.4262677140801</v>
+        <v>1531.935662380416</v>
       </c>
       <c r="S21">
-        <v>0.008026834243394143</v>
+        <v>0.007493482924032522</v>
       </c>
       <c r="T21">
-        <v>0.008026834243394143</v>
+        <v>0.01289876587859481</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H22">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I22">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J22">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N22">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O22">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P22">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q22">
-        <v>49.05666634985138</v>
+        <v>51.90152078787555</v>
       </c>
       <c r="R22">
-        <v>49.05666634985138</v>
+        <v>467.11368709088</v>
       </c>
       <c r="S22">
-        <v>0.002600405697558735</v>
+        <v>0.002284892586388638</v>
       </c>
       <c r="T22">
-        <v>0.002600405697558735</v>
+        <v>0.003933056874666751</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H23">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I23">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J23">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N23">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O23">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P23">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q23">
-        <v>45.72416761720543</v>
+        <v>48.99828160740977</v>
       </c>
       <c r="R23">
-        <v>45.72416761720543</v>
+        <v>440.984534466688</v>
       </c>
       <c r="S23">
-        <v>0.002423755930334876</v>
+        <v>0.002157081501486692</v>
       </c>
       <c r="T23">
-        <v>0.002423755930334876</v>
+        <v>0.003713051667801979</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H24">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I24">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J24">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N24">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O24">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P24">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q24">
-        <v>102.7864621928066</v>
+        <v>110.8077258919822</v>
       </c>
       <c r="R24">
-        <v>102.7864621928066</v>
+        <v>997.2695330278401</v>
       </c>
       <c r="S24">
-        <v>0.005448525588997537</v>
+        <v>0.004878156700647575</v>
       </c>
       <c r="T24">
-        <v>0.005448525588997537</v>
+        <v>0.008396923278353294</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H25">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I25">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J25">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N25">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O25">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P25">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q25">
-        <v>1042.332564417704</v>
+        <v>1352.353930818971</v>
       </c>
       <c r="R25">
-        <v>1042.332564417704</v>
+        <v>8114.123584913824</v>
       </c>
       <c r="S25">
-        <v>0.05525217551336969</v>
+        <v>0.05953550924510933</v>
       </c>
       <c r="T25">
-        <v>0.05525217551336969</v>
+        <v>0.06832021931597135</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H26">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I26">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J26">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N26">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O26">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P26">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q26">
-        <v>393.0902346408583</v>
+        <v>398.1446974947394</v>
       </c>
       <c r="R26">
-        <v>393.0902346408583</v>
+        <v>2388.868184968437</v>
       </c>
       <c r="S26">
-        <v>0.0208370067082205</v>
+        <v>0.01752776900957768</v>
       </c>
       <c r="T26">
-        <v>0.0208370067082205</v>
+        <v>0.02011406365777252</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H27">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I27">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J27">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N27">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O27">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P27">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q27">
-        <v>413.2520135002056</v>
+        <v>450.961652764452</v>
       </c>
       <c r="R27">
-        <v>413.2520135002056</v>
+        <v>4058.654874880067</v>
       </c>
       <c r="S27">
-        <v>0.02190574636217223</v>
+        <v>0.01985296233145772</v>
       </c>
       <c r="T27">
-        <v>0.02190574636217223</v>
+        <v>0.03417352327430534</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H28">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I28">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J28">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N28">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O28">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P28">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q28">
-        <v>133.8787942852985</v>
+        <v>137.5060099012767</v>
       </c>
       <c r="R28">
-        <v>133.8787942852985</v>
+        <v>1237.55408911149</v>
       </c>
       <c r="S28">
-        <v>0.007096674220767524</v>
+        <v>0.006053511685937055</v>
       </c>
       <c r="T28">
-        <v>0.007096674220767524</v>
+        <v>0.01042009847381097</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H29">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I29">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J29">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N29">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O29">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P29">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q29">
-        <v>124.7841911359086</v>
+        <v>129.8142731383693</v>
       </c>
       <c r="R29">
-        <v>124.7841911359086</v>
+        <v>1168.328458245324</v>
       </c>
       <c r="S29">
-        <v>0.006614585656533469</v>
+        <v>0.005714893625440349</v>
       </c>
       <c r="T29">
-        <v>0.006614585656533469</v>
+        <v>0.009837224644793099</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H30">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I30">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J30">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N30">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O30">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P30">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q30">
-        <v>280.5108591987732</v>
+        <v>293.5699768011467</v>
       </c>
       <c r="R30">
-        <v>280.5108591987732</v>
+        <v>2642.12979121032</v>
       </c>
       <c r="S30">
-        <v>0.01486937639189574</v>
+        <v>0.01292401173215566</v>
       </c>
       <c r="T30">
-        <v>0.01486937639189574</v>
+        <v>0.02224650449401157</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H31">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I31">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J31">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N31">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O31">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P31">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q31">
-        <v>2844.59253658536</v>
+        <v>3582.877537659054</v>
       </c>
       <c r="R31">
-        <v>2844.59253658536</v>
+        <v>21497.26522595432</v>
       </c>
       <c r="S31">
-        <v>0.1507867368446253</v>
+        <v>0.1577312225049088</v>
       </c>
       <c r="T31">
-        <v>0.1507867368446253</v>
+        <v>0.1810051152858306</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H32">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I32">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J32">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N32">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O32">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P32">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q32">
-        <v>325.524418851932</v>
+        <v>327.9348215493602</v>
       </c>
       <c r="R32">
-        <v>325.524418851932</v>
+        <v>1311.739286197441</v>
       </c>
       <c r="S32">
-        <v>0.01725546427146541</v>
+        <v>0.01443687643834616</v>
       </c>
       <c r="T32">
-        <v>0.01725546427146541</v>
+        <v>0.01104473142176533</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H33">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I33">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J33">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N33">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O33">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P33">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q33">
-        <v>342.2207159558438</v>
+        <v>371.4378969642539</v>
       </c>
       <c r="R33">
-        <v>342.2207159558438</v>
+        <v>2228.627381785524</v>
       </c>
       <c r="S33">
-        <v>0.01814050496720925</v>
+        <v>0.01635203909623531</v>
       </c>
       <c r="T33">
-        <v>0.01814050496720925</v>
+        <v>0.01876484994389977</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H34">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I34">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J34">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N34">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O34">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P34">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q34">
-        <v>110.8672077446446</v>
+        <v>113.2578409374283</v>
       </c>
       <c r="R34">
-        <v>110.8672077446446</v>
+        <v>679.5470456245699</v>
       </c>
       <c r="S34">
-        <v>0.005876871384524382</v>
+        <v>0.004986019622931093</v>
       </c>
       <c r="T34">
-        <v>0.005876871384524382</v>
+        <v>0.00572172739381367</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H35">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I35">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J35">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N35">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O35">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P35">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q35">
-        <v>103.3358189081885</v>
+        <v>106.9224851267887</v>
       </c>
       <c r="R35">
-        <v>103.3358189081885</v>
+        <v>641.5349107607319</v>
       </c>
       <c r="S35">
-        <v>0.00547764600094081</v>
+        <v>0.004707114355722693</v>
       </c>
       <c r="T35">
-        <v>0.00547764600094081</v>
+        <v>0.005401668503486418</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H36">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I36">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J36">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N36">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O36">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P36">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q36">
-        <v>232.2956063911478</v>
+        <v>241.8010802612934</v>
       </c>
       <c r="R36">
-        <v>232.2956063911478</v>
+        <v>1450.80648156776</v>
       </c>
       <c r="S36">
-        <v>0.01231357251366169</v>
+        <v>0.01064495774464585</v>
       </c>
       <c r="T36">
-        <v>0.01231357251366169</v>
+        <v>0.01221566518780042</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H37">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I37">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J37">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N37">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O37">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P37">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q37">
-        <v>2355.65336083331</v>
+        <v>2951.063553875303</v>
       </c>
       <c r="R37">
-        <v>2355.65336083331</v>
+        <v>11804.25421550121</v>
       </c>
       <c r="S37">
-        <v>0.1248689500688601</v>
+        <v>0.1299164867204922</v>
       </c>
       <c r="T37">
-        <v>0.1248689500688601</v>
+        <v>0.09939080030330684</v>
       </c>
     </row>
   </sheetData>
